--- a/src/test/java/apachePOI/resource/_CampusPositionCategories.xlsx
+++ b/src/test/java/apachePOI/resource/_CampusPositionCategories.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14010"/>
+    <workbookView windowWidth="9600" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Position Categories" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -79,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1010,8 +1023,8 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
